--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1296,7 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
-    <sheet name="playerData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -362,378 +361,6 @@
   </si>
   <si>
     <t>Object_Alpha_BalloonStand</t>
-  </si>
-  <si>
-    <t>gameMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameMoney_Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memory_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memory_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puzzle_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puzzle_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balloon_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balloon_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cook_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cook_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myRoom_B_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myRoom_B_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appleTree_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appleTree_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_Black_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_Black_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_White_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_White_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End-Short_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End_Short_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End_Vertical_O_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End_Vertical_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fence_End_O_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flower_1x_Orange_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flower_1x_Orange_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flower_1x_Purple_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flower_1x_Purple_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowers_BlueLight_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowers_BlueLight_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowers_Pink_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowers_Pink_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garbageCan_Blue_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garbageCan_Blue_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garbageCan_Red_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garbageCan_Red_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lantern_Path_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lantern_Path_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lantern_Small_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lantern_Small_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Bright_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Bright_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Snow_1_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Snow_1_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Snow_2_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pineTree_Snow_2_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree_Fruits_Plums_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree_Fruits_Plums_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trunk_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trunk_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trunk_x3_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trunk_x3_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umbrella_Purple_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umbrella_Purple_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umbrella_Red_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umbrella_Red_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balloonStand_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balloonStand_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindPicture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemoryCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Puzzle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balloon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppleTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat_Black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat_White</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fence_End_Short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fence_End_Vertical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fence_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower_1x_Orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flower_1x_Purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flowers_BlueLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flowers_Pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GarbageCan_Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GarbageCan_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lantern_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lantern_Small</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PineTree_Bright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PineTree_Snow_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PineTree_Snow_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree_Fruits_Plums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trunk_x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umbrella_Purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umbrella_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BalloonStand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxCount</t>
@@ -1064,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1290,7 +917,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -1322,7 +949,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -1354,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -1386,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1418,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1450,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1482,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -1514,7 +1141,7 @@
         <v>63</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -1546,7 +1173,7 @@
         <v>66</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -1578,7 +1205,7 @@
         <v>69</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -1610,7 +1237,7 @@
         <v>72</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -1642,7 +1269,7 @@
         <v>75</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -1674,7 +1301,7 @@
         <v>78</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -1706,7 +1333,7 @@
         <v>81</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -1738,7 +1365,7 @@
         <v>84</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -1770,7 +1397,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -1802,7 +1429,7 @@
         <v>90</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -1834,7 +1461,7 @@
         <v>93</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -1866,7 +1493,7 @@
         <v>96</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1898,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -1930,7 +1557,7 @@
         <v>102</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -1962,7 +1589,7 @@
         <v>105</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1994,7 +1621,7 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -2026,7 +1653,7 @@
         <v>111</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -2051,396 +1678,6 @@
       </c>
       <c r="K30" t="s">
         <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5000000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>186</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52594E7-3A0A-419A-935B-1264D7A37B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -364,13 +365,29 @@
   </si>
   <si>
     <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wow fox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,21 +705,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="5" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="9" width="16.25" customWidth="1"/>
     <col min="10" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +754,14 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -771,8 +795,14 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -807,7 +837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -842,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -877,7 +907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -912,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -944,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1040,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1051,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -1072,7 +1102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1104,7 +1134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1115,7 +1145,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -1136,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1168,7 +1198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1200,7 +1230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52594E7-3A0A-419A-935B-1264D7A37B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -55,9 +54,6 @@
     <t>Balloon</t>
   </si>
   <si>
-    <t>It is balloon</t>
-  </si>
-  <si>
     <t>com.DefaultCompany.Pop_The_Balloon</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>Puzzle</t>
   </si>
   <si>
-    <t>It is Puzzle</t>
-  </si>
-  <si>
     <t>com.DefaultCompany.Jigsaw_Final</t>
   </si>
   <si>
@@ -88,9 +81,6 @@
     <t>MyRoom</t>
   </si>
   <si>
-    <t>It is MyRoom</t>
-  </si>
-  <si>
     <t>com.DefaultCompany.JigsawPuzzle</t>
   </si>
   <si>
@@ -103,9 +93,6 @@
     <t>MemoryCard</t>
   </si>
   <si>
-    <t>It is MemoryCard</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
@@ -121,9 +108,6 @@
     <t>FindPicture</t>
   </si>
   <si>
-    <t>It is FindPicture</t>
-  </si>
-  <si>
     <t>Find</t>
   </si>
   <si>
@@ -139,9 +123,6 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>It is Cart</t>
-  </si>
-  <si>
     <t>Object_Cart</t>
   </si>
   <si>
@@ -154,9 +135,6 @@
     <t>AppleTree</t>
   </si>
   <si>
-    <t>It is AppleTree</t>
-  </si>
-  <si>
     <t>Object_AppleTree</t>
   </si>
   <si>
@@ -381,13 +359,73 @@
   </si>
   <si>
     <t>wow fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍선터트리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주스만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림카트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬스 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬스 세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬스 가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,11 +743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -755,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -775,36 +813,36 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -816,30 +854,30 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -851,30 +889,30 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -886,30 +924,30 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -921,30 +959,30 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>99999</v>
@@ -956,27 +994,27 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>99999</v>
@@ -988,27 +1026,27 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>99999</v>
@@ -1020,27 +1058,27 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>99999</v>
@@ -1052,27 +1090,27 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>99999</v>
@@ -1084,27 +1122,27 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>99999</v>
@@ -1116,27 +1154,27 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>99999</v>
@@ -1148,27 +1186,27 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>99999</v>
@@ -1180,27 +1218,27 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>99999</v>
@@ -1212,27 +1250,27 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>99999</v>
@@ -1244,27 +1282,27 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>99999</v>
@@ -1276,27 +1314,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>99999</v>
@@ -1308,27 +1346,27 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>99999</v>
@@ -1340,27 +1378,27 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>99999</v>
@@ -1372,27 +1410,27 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>99999</v>
@@ -1404,27 +1442,27 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>99999</v>
@@ -1436,27 +1474,27 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>99999</v>
@@ -1468,27 +1506,27 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>99999</v>
@@ -1500,27 +1538,27 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>99999</v>
@@ -1532,27 +1570,27 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>99999</v>
@@ -1564,27 +1602,27 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>99999</v>
@@ -1596,27 +1634,27 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>99999</v>
@@ -1628,27 +1666,27 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>99999</v>
@@ -1660,27 +1698,27 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>99999</v>
@@ -1692,22 +1730,22 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
   <si>
     <t>name</t>
   </si>
@@ -324,15 +324,6 @@
     <t>Object_Alpha_Umbrella_Purple</t>
   </si>
   <si>
-    <t>Umbrella_Red</t>
-  </si>
-  <si>
-    <t>Object_Umbrella_Red</t>
-  </si>
-  <si>
-    <t>Object_Alpha_Umbrella_Red</t>
-  </si>
-  <si>
     <t>BalloonStand</t>
   </si>
   <si>
@@ -419,6 +410,187 @@
   </si>
   <si>
     <t>파란 꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄무늬고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Cat_Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Cat_Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceCreamCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceCreamCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Cart2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일카트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cart2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowerBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_1</t>
+  </si>
+  <si>
+    <t>Object_Alpha_gift_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_gift_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_gift_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Blue_x2Crowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Tree_Blue_x2Crowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Green_Big_x3Crowns</t>
+  </si>
+  <si>
+    <t>Object_Tree_Green_Big_x3Crowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Tree_Green_Big_x3Crowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Tree_Tree_Stripes_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Tree_Stripes_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Stripes_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Stripes_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Tree_Stripes_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Tree_Stripes_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella_Purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella_Yellow</t>
+  </si>
+  <si>
+    <t>Umbrella_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Umbrella_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_Umbrella_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Cart2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_FlowerBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Alpha_FlowerBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_gift_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Tree_Blue_x2Crowns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Stripes_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree_Green_Big_x3Crowns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,17 +916,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="5" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="9" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="38.5" customWidth="1"/>
     <col min="10" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -793,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -813,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -834,10 +1008,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -854,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -889,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -924,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -959,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -982,7 +1156,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>99999</v>
@@ -994,16 +1168,16 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1014,28 +1188,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>99999</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1046,7 +1220,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>99999</v>
@@ -1058,16 +1232,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1078,7 +1252,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>99999</v>
@@ -1090,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1110,7 +1284,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>99999</v>
@@ -1122,16 +1296,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1142,7 +1316,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>99999</v>
@@ -1151,22 +1325,22 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -1174,7 +1348,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>99999</v>
@@ -1183,19 +1357,19 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1206,7 +1380,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>99999</v>
@@ -1215,22 +1389,22 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -1238,7 +1412,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>99999</v>
@@ -1247,19 +1421,19 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1270,7 +1444,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>99999</v>
@@ -1282,16 +1456,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1302,7 +1476,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>99999</v>
@@ -1314,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1334,7 +1508,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>99999</v>
@@ -1346,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1366,7 +1540,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>99999</v>
@@ -1381,13 +1555,13 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1398,7 +1572,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>99999</v>
@@ -1413,13 +1587,13 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1430,7 +1604,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>99999</v>
@@ -1445,13 +1619,13 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1462,7 +1636,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>99999</v>
@@ -1477,13 +1651,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1494,7 +1668,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>99999</v>
@@ -1509,13 +1683,13 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1526,7 +1700,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>99999</v>
@@ -1541,13 +1715,13 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1558,7 +1732,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>99999</v>
@@ -1573,13 +1747,13 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1590,7 +1764,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>99999</v>
@@ -1599,19 +1773,19 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1622,7 +1796,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>99999</v>
@@ -1631,19 +1805,19 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1654,7 +1828,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>99999</v>
@@ -1663,19 +1837,19 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1686,7 +1860,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>99999</v>
@@ -1695,19 +1869,19 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1718,7 +1892,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>99999</v>
@@ -1733,18 +1907,338 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31">
+        <v>99999</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32">
+        <v>99999</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33">
+        <v>99999</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>99999</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>99999</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36">
+        <v>99999</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37">
+        <v>99999</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38">
+        <v>99999</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39">
+        <v>99999</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40">
+        <v>99999</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="183">
   <si>
     <t>name</t>
   </si>
@@ -645,6 +645,14 @@
   <si>
     <t>내 정원을 망치는 토끼들을 쫓아줘 !</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1012,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,12 +1036,12 @@
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="13" width="12.875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
+    <col min="11" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1068,19 +1076,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1114,20 +1125,23 @@
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -1161,20 +1175,23 @@
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>178</v>
       </c>
@@ -1208,20 +1225,23 @@
       <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1255,20 +1275,23 @@
       <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -1300,8 +1323,11 @@
       <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -1333,8 +1359,11 @@
       <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1366,8 +1395,11 @@
       <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -1399,8 +1431,11 @@
       <c r="K9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
@@ -1432,8 +1467,11 @@
       <c r="K10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1465,8 +1503,11 @@
       <c r="K11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1498,8 +1539,11 @@
       <c r="K12" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1531,8 +1575,11 @@
       <c r="K13" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1564,8 +1611,11 @@
       <c r="K14" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1597,8 +1647,11 @@
       <c r="K15" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1630,8 +1683,11 @@
       <c r="K16" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1663,8 +1719,11 @@
       <c r="K17" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1696,8 +1755,11 @@
       <c r="K18" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1729,8 +1791,11 @@
       <c r="K19" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1762,8 +1827,11 @@
       <c r="K20" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1795,8 +1863,11 @@
       <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1828,8 +1899,11 @@
       <c r="K22" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1861,8 +1935,11 @@
       <c r="K23" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1894,8 +1971,11 @@
       <c r="K24" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1927,8 +2007,11 @@
       <c r="K25" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
@@ -1960,8 +2043,11 @@
       <c r="K26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
@@ -1993,8 +2079,11 @@
       <c r="K27" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -2026,8 +2115,11 @@
       <c r="K28" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>87</v>
       </c>
@@ -2059,8 +2151,11 @@
       <c r="K29" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>141</v>
       </c>
@@ -2092,8 +2187,11 @@
       <c r="K30" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>90</v>
       </c>
@@ -2125,8 +2223,11 @@
       <c r="K31" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
@@ -2158,8 +2259,11 @@
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>122</v>
       </c>
@@ -2170,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
@@ -2191,8 +2295,11 @@
       <c r="K33" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>149</v>
       </c>
@@ -2224,8 +2331,11 @@
       <c r="K34" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>125</v>
       </c>
@@ -2257,8 +2367,11 @@
       <c r="K35" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>129</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="K36" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>153</v>
       </c>
@@ -2323,8 +2439,11 @@
       <c r="K37" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>152</v>
       </c>
@@ -2356,8 +2475,11 @@
       <c r="K38" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>137</v>
       </c>
@@ -2389,302 +2511,342 @@
       <c r="K39" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C5595-5B5B-4B55-850F-DA9777604564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
@@ -55,9 +54,6 @@
     <t>Balloon</t>
   </si>
   <si>
-    <t>com.DefaultCompany.Pop_The_Balloon</t>
-  </si>
-  <si>
     <t>Building_Balloon</t>
   </si>
   <si>
@@ -70,15 +66,9 @@
     <t>Puzzle</t>
   </si>
   <si>
-    <t>com.DefaultCompany.Jigsaw_Final</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
-    <t>com.DefaultCompany.OneWeek_MemoryCard</t>
-  </si>
-  <si>
     <t>Building_MemoryCard</t>
   </si>
   <si>
@@ -365,9 +355,6 @@
   </si>
   <si>
     <t>Juice</t>
-  </si>
-  <si>
-    <t>com.DefaultCompany.2DProject</t>
   </si>
   <si>
     <t>Building_Juice</t>
@@ -732,13 +719,29 @@
   <si>
     <t>깜찍한 선물이 들어있을지도 
 모르는 선물 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.DefaultCompany.Pop_The_Balloon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.DefaultCompany.Jigsaw_Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.DefaultCompany.2DProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.DefaultCompany.OneWeek_MemoryCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1114,7 @@
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="34.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1155,24 +1158,24 @@
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1184,45 +1187,45 @@
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1234,45 +1237,45 @@
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1284,45 +1287,45 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1334,45 +1337,45 @@
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1">
         <v>99999</v>
@@ -1384,23 +1387,23 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="7" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1">
         <v>99999</v>
@@ -1420,23 +1423,23 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1">
         <v>99999</v>
@@ -1456,23 +1459,23 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1">
         <v>99999</v>
@@ -1492,23 +1495,23 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1">
         <v>99999</v>
@@ -1528,23 +1531,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1">
         <v>99999</v>
@@ -1564,23 +1567,23 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1">
         <v>99999</v>
@@ -1600,23 +1603,23 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -1624,7 +1627,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1">
         <v>99999</v>
@@ -1636,23 +1639,23 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1">
         <v>99999</v>
@@ -1672,23 +1675,23 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1696,7 +1699,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15" s="1">
         <v>99999</v>
@@ -1708,23 +1711,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B16" s="1">
         <v>99999</v>
@@ -1744,23 +1747,23 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B17" s="1">
         <v>99999</v>
@@ -1780,23 +1783,23 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1">
         <v>99999</v>
@@ -1816,23 +1819,23 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1">
         <v>99999</v>
@@ -1852,23 +1855,23 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1">
         <v>99999</v>
@@ -1888,23 +1891,23 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1">
         <v>99999</v>
@@ -1924,23 +1927,23 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B22" s="1">
         <v>99999</v>
@@ -1960,23 +1963,23 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1">
         <v>99999</v>
@@ -1996,23 +1999,23 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B24" s="1">
         <v>99999</v>
@@ -2032,23 +2035,23 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2056,7 +2059,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1">
         <v>99999</v>
@@ -2068,23 +2071,23 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1">
         <v>99999</v>
@@ -2104,23 +2107,23 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1">
         <v>99999</v>
@@ -2140,23 +2143,23 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1">
         <v>99999</v>
@@ -2176,23 +2179,23 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="29" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1">
         <v>99999</v>
@@ -2212,23 +2215,23 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1">
         <v>99999</v>
@@ -2248,23 +2251,23 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B31" s="1">
         <v>99999</v>
@@ -2284,23 +2287,23 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B32" s="1">
         <v>99999</v>
@@ -2320,23 +2323,23 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B33" s="1">
         <v>99999</v>
@@ -2356,31 +2359,31 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1">
         <v>99999</v>
@@ -2392,23 +2395,23 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1">
         <v>99999</v>
@@ -2428,23 +2431,23 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1">
         <v>99999</v>
@@ -2464,23 +2467,23 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B37" s="1">
         <v>99999</v>
@@ -2500,23 +2503,23 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1">
         <v>99999</v>
@@ -2536,23 +2539,23 @@
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1">
         <v>99999</v>
@@ -2572,23 +2575,23 @@
         <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>

--- a/Assets/DataTable/Data.xlsx
+++ b/Assets/DataTable/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F237881-60D8-437D-8DF4-B39EA4476561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="objectdatas" sheetId="1" r:id="rId1"/>
@@ -730,18 +731,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.DefaultCompany.2DProject</t>
+    <t>com.DefaultCompany.OneWeek_MemoryCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.DefaultCompany.OneWeek_MemoryCard</t>
+    <t>com.DefaultCompany.JuiceMaking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,11 +1102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1293,7 +1294,7 @@
         <v>111</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>112</v>
@@ -1343,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>16</v>
